--- a/APM files/122325576/122325576 IMPORT 3 clone STD to PKG.xlsx
+++ b/APM files/122325576/122325576 IMPORT 3 clone STD to PKG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\workspace\APM files\122325576\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC007E6-AB2E-4478-B6F0-D09A1F269070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D27079-328E-4061-8963-C788866811D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="6600" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13005" yWindow="4155" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="199">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -194,9 +194,6 @@
     <t>OccupancyBasedPricing</t>
   </si>
   <si>
-    <t>RateCode</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -248,12 +245,15 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>RoomOnly</t>
-  </si>
-  <si>
     <t>STANDARD</t>
   </si>
   <si>
+    <t>P-Non-refundable</t>
+  </si>
+  <si>
+    <t>P-Standard</t>
+  </si>
+  <si>
     <t>88986725</t>
   </si>
   <si>
@@ -395,6 +395,9 @@
     <t>Non Refundable Policy_EC_Wed Aug 09 14:32:47 UTC 2023</t>
   </si>
   <si>
+    <t>P-Standard non-refundable</t>
+  </si>
+  <si>
     <t>96658659</t>
   </si>
   <si>
@@ -452,9 +455,6 @@
     <t>323608063</t>
   </si>
   <si>
-    <t>2pax</t>
-  </si>
-  <si>
     <t>Comfort</t>
   </si>
   <si>
@@ -464,15 +464,6 @@
     <t>Non Refundable Policy_EC_Wed Oct 04 15:24:22 UTC 2023</t>
   </si>
   <si>
-    <t>3 pax</t>
-  </si>
-  <si>
-    <t>3pax</t>
-  </si>
-  <si>
-    <t>4pax</t>
-  </si>
-  <si>
     <t>99603905</t>
   </si>
   <si>
@@ -494,16 +485,154 @@
     <t>Non Refundable Policy_EC_Thu Nov 30 16:41:40 UTC 2023</t>
   </si>
   <si>
-    <t>P-Non-refundable</t>
-  </si>
-  <si>
-    <t>P-Standard</t>
-  </si>
-  <si>
-    <t>P-Standard non-refundable</t>
-  </si>
-  <si>
     <t>P-NOT REF 3 PAX</t>
+  </si>
+  <si>
+    <t>P-Ra-41</t>
+  </si>
+  <si>
+    <t>P-Ro-79</t>
+  </si>
+  <si>
+    <t>P-Ra-05</t>
+  </si>
+  <si>
+    <t>P-Ro-33</t>
+  </si>
+  <si>
+    <t>P-Ra-54</t>
+  </si>
+  <si>
+    <t>P-Ro-30</t>
+  </si>
+  <si>
+    <t>P-Ra-65</t>
+  </si>
+  <si>
+    <t>P-Ro-31</t>
+  </si>
+  <si>
+    <t>P-Ra-79</t>
+  </si>
+  <si>
+    <t>P-Ro-29</t>
+  </si>
+  <si>
+    <t>P-Ra-88</t>
+  </si>
+  <si>
+    <t>P-Ro-32</t>
+  </si>
+  <si>
+    <t>P-Ra-48</t>
+  </si>
+  <si>
+    <t>P-Ro-15</t>
+  </si>
+  <si>
+    <t>P-Ra-67</t>
+  </si>
+  <si>
+    <t>P-Ro-59</t>
+  </si>
+  <si>
+    <t>P-Ra-14</t>
+  </si>
+  <si>
+    <t>P-Ro-46</t>
+  </si>
+  <si>
+    <t>P-Ra-87</t>
+  </si>
+  <si>
+    <t>P-Ro-02</t>
+  </si>
+  <si>
+    <t>P-Ra-15</t>
+  </si>
+  <si>
+    <t>P-Ro-67</t>
+  </si>
+  <si>
+    <t>P-Ra-24</t>
+  </si>
+  <si>
+    <t>P-Ro-49</t>
+  </si>
+  <si>
+    <t>P-Ra-36</t>
+  </si>
+  <si>
+    <t>P-Ro-63</t>
+  </si>
+  <si>
+    <t>P-Ra-92</t>
+  </si>
+  <si>
+    <t>P-Ro-42</t>
+  </si>
+  <si>
+    <t>P-Ro-73</t>
+  </si>
+  <si>
+    <t>P-Ra-25</t>
+  </si>
+  <si>
+    <t>P-Ra-30</t>
+  </si>
+  <si>
+    <t>P-Ra-51</t>
+  </si>
+  <si>
+    <t>P-Ra-55</t>
+  </si>
+  <si>
+    <t>P-Ra-94</t>
+  </si>
+  <si>
+    <t>P-Ra-96</t>
+  </si>
+  <si>
+    <t>P-Ra-78</t>
+  </si>
+  <si>
+    <t>P-Ra-80</t>
+  </si>
+  <si>
+    <t>P-Ra-82</t>
+  </si>
+  <si>
+    <t>P-Ra-29</t>
+  </si>
+  <si>
+    <t>P-Ra-31</t>
+  </si>
+  <si>
+    <t>P-2p-07</t>
+  </si>
+  <si>
+    <t>P-2p-09</t>
+  </si>
+  <si>
+    <t>P-3 -99</t>
+  </si>
+  <si>
+    <t>P-3p-03</t>
+  </si>
+  <si>
+    <t>P-4p-21</t>
+  </si>
+  <si>
+    <t>P-4p-25</t>
+  </si>
+  <si>
+    <t>P-Ra-89</t>
+  </si>
+  <si>
+    <t>P-Ro-13</t>
+  </si>
+  <si>
+    <t>P-Ro-22</t>
   </si>
 </sst>
 </file>
@@ -876,7 +1005,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,10 +1205,10 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
@@ -1091,82 +1220,79 @@
         <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>54</v>
-      </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" t="s">
         <v>58</v>
       </c>
-      <c r="V2" t="s">
-        <v>59</v>
-      </c>
       <c r="W2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" t="s">
         <v>60</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR2" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>65</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>66</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -1177,10 +1303,10 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -1192,82 +1318,79 @@
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
         <v>53</v>
       </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>54</v>
-      </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" t="s">
         <v>58</v>
       </c>
-      <c r="V3" t="s">
-        <v>59</v>
-      </c>
       <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
         <v>60</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AI3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN3" t="s">
         <v>62</v>
       </c>
-      <c r="AI3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>63</v>
-      </c>
       <c r="AO3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS3" t="s">
         <v>65</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>66</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
@@ -1278,10 +1401,10 @@
         <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>49</v>
@@ -1293,40 +1416,40 @@
         <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" t="s">
         <v>58</v>
       </c>
-      <c r="O4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" t="s">
-        <v>59</v>
-      </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X4" t="s">
         <v>75</v>
@@ -1335,40 +1458,40 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN4" t="s">
         <v>77</v>
       </c>
       <c r="AO4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR4" t="s">
         <v>64</v>
       </c>
-      <c r="AP4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>65</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>66</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
@@ -1379,10 +1502,10 @@
         <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
@@ -1394,40 +1517,40 @@
         <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" t="s">
         <v>58</v>
       </c>
-      <c r="O5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V5" t="s">
-        <v>59</v>
-      </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X5" t="s">
         <v>75</v>
@@ -1436,40 +1559,40 @@
         <v>76</v>
       </c>
       <c r="AI5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN5" t="s">
         <v>77</v>
       </c>
       <c r="AO5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS5" t="s">
         <v>65</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>66</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
@@ -1480,10 +1603,10 @@
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1495,40 +1618,40 @@
         <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
         <v>53</v>
       </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>54</v>
-      </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S6" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" t="s">
         <v>58</v>
       </c>
-      <c r="V6" t="s">
-        <v>59</v>
-      </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X6" t="s">
         <v>75</v>
@@ -1537,40 +1660,40 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN6" t="s">
         <v>77</v>
       </c>
       <c r="AO6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR6" t="s">
         <v>64</v>
       </c>
-      <c r="AP6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>65</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>66</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -1581,10 +1704,10 @@
         <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1596,40 +1719,40 @@
         <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>54</v>
-      </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S7" t="s">
+        <v>57</v>
+      </c>
+      <c r="V7" t="s">
         <v>58</v>
       </c>
-      <c r="V7" t="s">
-        <v>59</v>
-      </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X7" t="s">
         <v>75</v>
@@ -1638,40 +1761,40 @@
         <v>79</v>
       </c>
       <c r="AI7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN7" t="s">
         <v>77</v>
       </c>
       <c r="AO7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS7" t="s">
         <v>65</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>66</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -1682,10 +1805,10 @@
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -1697,40 +1820,40 @@
         <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" t="s">
         <v>55</v>
       </c>
-      <c r="L8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" t="s">
         <v>58</v>
       </c>
-      <c r="O8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" t="s">
-        <v>58</v>
-      </c>
-      <c r="V8" t="s">
-        <v>59</v>
-      </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X8" t="s">
         <v>75</v>
@@ -1739,40 +1862,40 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN8" t="s">
         <v>77</v>
       </c>
       <c r="AO8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR8" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>65</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>66</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -1783,10 +1906,10 @@
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -1798,40 +1921,40 @@
         <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" t="s">
         <v>55</v>
       </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V9" t="s">
         <v>58</v>
       </c>
-      <c r="O9" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" t="s">
-        <v>58</v>
-      </c>
-      <c r="V9" t="s">
-        <v>59</v>
-      </c>
       <c r="W9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X9" t="s">
         <v>75</v>
@@ -1840,40 +1963,40 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN9" t="s">
         <v>77</v>
       </c>
       <c r="AO9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS9" t="s">
         <v>65</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>66</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -1884,10 +2007,10 @@
         <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -1899,40 +2022,40 @@
         <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
         <v>55</v>
       </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V10" t="s">
         <v>58</v>
       </c>
-      <c r="O10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>54</v>
-      </c>
-      <c r="R10" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" t="s">
-        <v>58</v>
-      </c>
-      <c r="V10" t="s">
-        <v>59</v>
-      </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X10" t="s">
         <v>75</v>
@@ -1941,40 +2064,40 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN10" t="s">
         <v>77</v>
       </c>
       <c r="AO10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR10" t="s">
         <v>64</v>
       </c>
-      <c r="AP10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR10" t="s">
+      <c r="AS10" t="s">
         <v>65</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>66</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -1985,10 +2108,10 @@
         <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -2000,40 +2123,40 @@
         <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" t="s">
         <v>55</v>
       </c>
-      <c r="L11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" t="s">
         <v>58</v>
       </c>
-      <c r="O11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>54</v>
-      </c>
-      <c r="R11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V11" t="s">
-        <v>59</v>
-      </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X11" t="s">
         <v>75</v>
@@ -2042,40 +2165,40 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN11" t="s">
         <v>77</v>
       </c>
       <c r="AO11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS11" t="s">
         <v>65</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>66</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -2086,10 +2209,10 @@
         <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
@@ -2101,40 +2224,40 @@
         <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" t="s">
         <v>55</v>
       </c>
-      <c r="L12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V12" t="s">
         <v>58</v>
       </c>
-      <c r="O12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>54</v>
-      </c>
-      <c r="R12" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12" t="s">
-        <v>59</v>
-      </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X12" t="s">
         <v>75</v>
@@ -2143,40 +2266,40 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN12" t="s">
         <v>77</v>
       </c>
       <c r="AO12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR12" t="s">
         <v>64</v>
       </c>
-      <c r="AP12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>65</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>66</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -2187,10 +2310,10 @@
         <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
         <v>49</v>
@@ -2202,40 +2325,40 @@
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" t="s">
         <v>55</v>
       </c>
-      <c r="L13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V13" t="s">
         <v>58</v>
       </c>
-      <c r="O13" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>54</v>
-      </c>
-      <c r="R13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V13" t="s">
-        <v>59</v>
-      </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X13" t="s">
         <v>75</v>
@@ -2244,40 +2367,40 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN13" t="s">
         <v>77</v>
       </c>
       <c r="AO13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS13" t="s">
         <v>65</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>66</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -2288,10 +2411,10 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
         <v>49</v>
@@ -2303,61 +2426,58 @@
         <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" t="s">
         <v>53</v>
       </c>
-      <c r="L14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>54</v>
-      </c>
       <c r="R14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S14" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" t="s">
         <v>58</v>
       </c>
-      <c r="V14" t="s">
-        <v>59</v>
-      </c>
       <c r="W14" t="s">
+        <v>59</v>
+      </c>
+      <c r="X14" t="s">
         <v>60</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>61</v>
       </c>
-      <c r="Y14" t="s">
-        <v>62</v>
-      </c>
       <c r="AI14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN14" t="s">
         <v>85</v>
@@ -2366,19 +2486,19 @@
         <v>86</v>
       </c>
       <c r="AP14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS14" t="s">
         <v>65</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>66</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -2389,10 +2509,10 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
         <v>49</v>
@@ -2404,61 +2524,58 @@
         <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" t="s">
         <v>53</v>
       </c>
-      <c r="L15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>54</v>
-      </c>
       <c r="R15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S15" t="s">
+        <v>57</v>
+      </c>
+      <c r="V15" t="s">
         <v>58</v>
       </c>
-      <c r="V15" t="s">
-        <v>59</v>
-      </c>
       <c r="W15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X15" t="s">
         <v>60</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>61</v>
       </c>
-      <c r="Y15" t="s">
-        <v>62</v>
-      </c>
       <c r="AI15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN15" t="s">
         <v>85</v>
@@ -2467,19 +2584,19 @@
         <v>87</v>
       </c>
       <c r="AP15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS15" t="s">
         <v>65</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>66</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -2490,10 +2607,10 @@
         <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
@@ -2505,85 +2622,82 @@
         <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
         <v>90</v>
       </c>
-      <c r="L16" t="s">
-        <v>90</v>
-      </c>
       <c r="M16" t="s">
         <v>90</v>
       </c>
       <c r="N16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" t="s">
         <v>53</v>
       </c>
-      <c r="O16" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>54</v>
-      </c>
       <c r="R16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" t="s">
-        <v>58</v>
-      </c>
-      <c r="V16" t="s">
-        <v>59</v>
-      </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X16" t="s">
         <v>91</v>
       </c>
       <c r="Y16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN16" t="s">
         <v>62</v>
       </c>
-      <c r="AI16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN16" t="s">
+      <c r="AO16" t="s">
         <v>63</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AP16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR16" t="s">
         <v>64</v>
       </c>
-      <c r="AP16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR16" t="s">
+      <c r="AS16" t="s">
         <v>65</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>66</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
@@ -2594,10 +2708,10 @@
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>49</v>
@@ -2609,85 +2723,82 @@
         <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
         <v>90</v>
       </c>
-      <c r="L17" t="s">
-        <v>90</v>
-      </c>
       <c r="M17" t="s">
         <v>90</v>
       </c>
       <c r="N17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" t="s">
         <v>53</v>
       </c>
-      <c r="O17" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>54</v>
-      </c>
       <c r="R17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" t="s">
         <v>58</v>
       </c>
-      <c r="U17" t="s">
-        <v>58</v>
-      </c>
-      <c r="V17" t="s">
-        <v>59</v>
-      </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X17" t="s">
         <v>91</v>
       </c>
       <c r="Y17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN17" t="s">
         <v>62</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>63</v>
       </c>
       <c r="AO17" t="s">
         <v>86</v>
       </c>
       <c r="AP17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS17" t="s">
         <v>65</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>66</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
@@ -2698,10 +2809,10 @@
         <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
@@ -2713,88 +2824,85 @@
         <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
         <v>90</v>
       </c>
-      <c r="L18" t="s">
-        <v>90</v>
-      </c>
       <c r="M18" t="s">
         <v>90</v>
       </c>
       <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" t="s">
         <v>53</v>
       </c>
-      <c r="O18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>54</v>
-      </c>
       <c r="R18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S18" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" t="s">
+        <v>57</v>
+      </c>
+      <c r="V18" t="s">
         <v>58</v>
       </c>
-      <c r="T18" t="s">
-        <v>55</v>
-      </c>
-      <c r="U18" t="s">
-        <v>58</v>
-      </c>
-      <c r="V18" t="s">
-        <v>59</v>
-      </c>
       <c r="W18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X18" t="s">
         <v>91</v>
       </c>
       <c r="Y18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN18" t="s">
         <v>94</v>
       </c>
       <c r="AO18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR18" t="s">
         <v>64</v>
       </c>
-      <c r="AP18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR18" t="s">
+      <c r="AS18" t="s">
         <v>65</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>66</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
@@ -2805,10 +2913,10 @@
         <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>49</v>
@@ -2820,67 +2928,64 @@
         <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
         <v>90</v>
       </c>
-      <c r="L19" t="s">
-        <v>90</v>
-      </c>
       <c r="M19" t="s">
         <v>90</v>
       </c>
       <c r="N19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" t="s">
         <v>53</v>
       </c>
-      <c r="O19" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>54</v>
-      </c>
       <c r="R19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S19" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" t="s">
+        <v>57</v>
+      </c>
+      <c r="V19" t="s">
         <v>58</v>
       </c>
-      <c r="T19" t="s">
-        <v>55</v>
-      </c>
-      <c r="U19" t="s">
-        <v>58</v>
-      </c>
-      <c r="V19" t="s">
-        <v>59</v>
-      </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X19" t="s">
         <v>91</v>
       </c>
       <c r="Y19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN19" t="s">
         <v>94</v>
@@ -2889,19 +2994,19 @@
         <v>86</v>
       </c>
       <c r="AP19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS19" t="s">
         <v>65</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AT19" t="s">
         <v>66</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
@@ -2912,10 +3017,10 @@
         <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
@@ -2927,82 +3032,79 @@
         <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" t="s">
         <v>55</v>
       </c>
-      <c r="L20" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" t="s">
-        <v>55</v>
-      </c>
-      <c r="N20" t="s">
-        <v>54</v>
-      </c>
-      <c r="O20" t="s">
-        <v>56</v>
-      </c>
       <c r="P20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" t="s">
         <v>53</v>
       </c>
-      <c r="Q20" t="s">
-        <v>54</v>
-      </c>
       <c r="R20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S20" t="s">
+        <v>57</v>
+      </c>
+      <c r="V20" t="s">
         <v>58</v>
       </c>
-      <c r="V20" t="s">
-        <v>59</v>
-      </c>
       <c r="W20" t="s">
+        <v>59</v>
+      </c>
+      <c r="X20" t="s">
         <v>60</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>61</v>
       </c>
-      <c r="Y20" t="s">
-        <v>62</v>
-      </c>
       <c r="AI20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN20" t="s">
         <v>97</v>
       </c>
       <c r="AO20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR20" t="s">
         <v>64</v>
       </c>
-      <c r="AP20" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR20" t="s">
+      <c r="AS20" t="s">
         <v>65</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>66</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
@@ -3013,10 +3115,10 @@
         <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
@@ -3028,82 +3130,79 @@
         <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" t="s">
         <v>55</v>
       </c>
-      <c r="L21" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" t="s">
-        <v>56</v>
-      </c>
       <c r="P21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" t="s">
         <v>53</v>
       </c>
-      <c r="Q21" t="s">
-        <v>54</v>
-      </c>
       <c r="R21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S21" t="s">
+        <v>57</v>
+      </c>
+      <c r="V21" t="s">
         <v>58</v>
       </c>
-      <c r="V21" t="s">
-        <v>59</v>
-      </c>
       <c r="W21" t="s">
+        <v>59</v>
+      </c>
+      <c r="X21" t="s">
         <v>60</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>61</v>
       </c>
-      <c r="Y21" t="s">
-        <v>62</v>
-      </c>
       <c r="AI21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN21" t="s">
         <v>97</v>
       </c>
       <c r="AO21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS21" t="s">
         <v>65</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AT21" t="s">
         <v>66</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
@@ -3114,10 +3213,10 @@
         <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
         <v>49</v>
@@ -3129,82 +3228,79 @@
         <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" t="s">
         <v>55</v>
       </c>
-      <c r="L22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" t="s">
+        <v>57</v>
+      </c>
+      <c r="V22" t="s">
         <v>58</v>
       </c>
-      <c r="O22" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>54</v>
-      </c>
-      <c r="R22" t="s">
-        <v>57</v>
-      </c>
-      <c r="S22" t="s">
-        <v>58</v>
-      </c>
-      <c r="V22" t="s">
-        <v>59</v>
-      </c>
       <c r="W22" t="s">
+        <v>59</v>
+      </c>
+      <c r="X22" t="s">
         <v>60</v>
-      </c>
-      <c r="X22" t="s">
-        <v>61</v>
       </c>
       <c r="Y22" t="s">
         <v>100</v>
       </c>
       <c r="AI22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN22" t="s">
         <v>101</v>
       </c>
       <c r="AO22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR22" t="s">
         <v>64</v>
       </c>
-      <c r="AP22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR22" t="s">
+      <c r="AS22" t="s">
         <v>65</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>66</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
@@ -3215,10 +3311,10 @@
         <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
@@ -3230,82 +3326,79 @@
         <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" t="s">
         <v>55</v>
       </c>
-      <c r="L23" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23" t="s">
+        <v>56</v>
+      </c>
+      <c r="S23" t="s">
+        <v>57</v>
+      </c>
+      <c r="V23" t="s">
         <v>58</v>
       </c>
-      <c r="O23" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>54</v>
-      </c>
-      <c r="R23" t="s">
-        <v>57</v>
-      </c>
-      <c r="S23" t="s">
-        <v>58</v>
-      </c>
-      <c r="V23" t="s">
-        <v>59</v>
-      </c>
       <c r="W23" t="s">
+        <v>59</v>
+      </c>
+      <c r="X23" t="s">
         <v>60</v>
-      </c>
-      <c r="X23" t="s">
-        <v>61</v>
       </c>
       <c r="Y23" t="s">
         <v>100</v>
       </c>
       <c r="AI23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN23" t="s">
         <v>101</v>
       </c>
       <c r="AO23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR23" t="s">
         <v>64</v>
       </c>
-      <c r="AP23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR23" t="s">
+      <c r="AS23" t="s">
         <v>65</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AT23" t="s">
         <v>66</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
@@ -3316,10 +3409,10 @@
         <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
@@ -3331,91 +3424,88 @@
         <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" t="s">
         <v>53</v>
       </c>
-      <c r="L24" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" t="s">
-        <v>53</v>
-      </c>
-      <c r="N24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>54</v>
-      </c>
       <c r="R24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S24" t="s">
+        <v>57</v>
+      </c>
+      <c r="T24" t="s">
+        <v>57</v>
+      </c>
+      <c r="U24" t="s">
+        <v>57</v>
+      </c>
+      <c r="V24" t="s">
         <v>58</v>
       </c>
-      <c r="T24" t="s">
-        <v>58</v>
-      </c>
-      <c r="U24" t="s">
-        <v>58</v>
-      </c>
-      <c r="V24" t="s">
-        <v>59</v>
-      </c>
       <c r="W24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X24" t="s">
         <v>91</v>
       </c>
       <c r="Y24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA24" t="s">
         <v>103</v>
       </c>
       <c r="AI24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN24" t="s">
         <v>104</v>
       </c>
       <c r="AO24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR24" t="s">
         <v>64</v>
       </c>
-      <c r="AP24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR24" t="s">
+      <c r="AS24" t="s">
         <v>65</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AT24" t="s">
         <v>66</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
@@ -3426,10 +3516,10 @@
         <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
@@ -3441,91 +3531,88 @@
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" t="s">
         <v>53</v>
       </c>
-      <c r="L25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" t="s">
-        <v>53</v>
-      </c>
-      <c r="N25" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>54</v>
-      </c>
       <c r="R25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S25" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" t="s">
+        <v>57</v>
+      </c>
+      <c r="V25" t="s">
         <v>58</v>
       </c>
-      <c r="T25" t="s">
-        <v>58</v>
-      </c>
-      <c r="U25" t="s">
-        <v>58</v>
-      </c>
-      <c r="V25" t="s">
-        <v>59</v>
-      </c>
       <c r="W25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X25" t="s">
         <v>91</v>
       </c>
       <c r="Y25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA25" t="s">
         <v>103</v>
       </c>
       <c r="AI25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN25" t="s">
         <v>104</v>
       </c>
       <c r="AO25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS25" t="s">
         <v>65</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AT25" t="s">
         <v>66</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
@@ -3536,10 +3623,10 @@
         <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
@@ -3551,82 +3638,79 @@
         <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="K26" t="s">
         <v>90</v>
       </c>
-      <c r="L26" t="s">
-        <v>90</v>
-      </c>
       <c r="M26" t="s">
         <v>90</v>
       </c>
       <c r="N26" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" t="s">
         <v>53</v>
       </c>
-      <c r="O26" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>54</v>
-      </c>
       <c r="R26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S26" t="s">
+        <v>57</v>
+      </c>
+      <c r="V26" t="s">
         <v>58</v>
       </c>
-      <c r="V26" t="s">
-        <v>59</v>
-      </c>
       <c r="W26" t="s">
+        <v>59</v>
+      </c>
+      <c r="X26" t="s">
         <v>60</v>
-      </c>
-      <c r="X26" t="s">
-        <v>61</v>
       </c>
       <c r="Y26" t="s">
         <v>79</v>
       </c>
       <c r="AI26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN26" t="s">
         <v>107</v>
       </c>
       <c r="AO26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR26" t="s">
         <v>64</v>
       </c>
-      <c r="AP26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR26" t="s">
+      <c r="AS26" t="s">
         <v>65</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AT26" t="s">
         <v>66</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
@@ -3637,10 +3721,10 @@
         <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
         <v>49</v>
@@ -3652,82 +3736,79 @@
         <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="K27" t="s">
         <v>90</v>
       </c>
-      <c r="L27" t="s">
-        <v>90</v>
-      </c>
       <c r="M27" t="s">
         <v>90</v>
       </c>
       <c r="N27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27" t="s">
         <v>53</v>
       </c>
-      <c r="O27" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>54</v>
-      </c>
       <c r="R27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V27" t="s">
         <v>58</v>
       </c>
-      <c r="V27" t="s">
-        <v>59</v>
-      </c>
       <c r="W27" t="s">
+        <v>59</v>
+      </c>
+      <c r="X27" t="s">
         <v>60</v>
-      </c>
-      <c r="X27" t="s">
-        <v>61</v>
       </c>
       <c r="Y27" t="s">
         <v>79</v>
       </c>
       <c r="AI27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN27" t="s">
         <v>107</v>
       </c>
       <c r="AO27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS27" t="s">
         <v>65</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AT27" t="s">
         <v>66</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
@@ -3738,10 +3819,10 @@
         <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
         <v>49</v>
@@ -3753,82 +3834,79 @@
         <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="K28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" t="s">
+        <v>57</v>
+      </c>
+      <c r="O28" t="s">
         <v>55</v>
       </c>
-      <c r="L28" t="s">
-        <v>55</v>
-      </c>
-      <c r="M28" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>53</v>
+      </c>
+      <c r="R28" t="s">
+        <v>56</v>
+      </c>
+      <c r="S28" t="s">
+        <v>57</v>
+      </c>
+      <c r="V28" t="s">
         <v>58</v>
       </c>
-      <c r="O28" t="s">
-        <v>56</v>
-      </c>
-      <c r="P28" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>54</v>
-      </c>
-      <c r="R28" t="s">
-        <v>57</v>
-      </c>
-      <c r="S28" t="s">
-        <v>58</v>
-      </c>
-      <c r="V28" t="s">
-        <v>59</v>
-      </c>
       <c r="W28" t="s">
+        <v>59</v>
+      </c>
+      <c r="X28" t="s">
         <v>60</v>
-      </c>
-      <c r="X28" t="s">
-        <v>61</v>
       </c>
       <c r="Y28" t="s">
         <v>110</v>
       </c>
       <c r="AI28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN28" t="s">
         <v>111</v>
       </c>
       <c r="AO28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR28" t="s">
         <v>64</v>
       </c>
-      <c r="AP28" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR28" t="s">
+      <c r="AS28" t="s">
         <v>65</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AT28" t="s">
         <v>66</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
@@ -3839,10 +3917,10 @@
         <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
         <v>49</v>
@@ -3854,61 +3932,58 @@
         <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="K29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O29" t="s">
         <v>55</v>
       </c>
-      <c r="L29" t="s">
-        <v>55</v>
-      </c>
-      <c r="M29" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>53</v>
+      </c>
+      <c r="R29" t="s">
+        <v>56</v>
+      </c>
+      <c r="S29" t="s">
+        <v>57</v>
+      </c>
+      <c r="V29" t="s">
         <v>58</v>
       </c>
-      <c r="O29" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>54</v>
-      </c>
-      <c r="R29" t="s">
-        <v>57</v>
-      </c>
-      <c r="S29" t="s">
-        <v>58</v>
-      </c>
-      <c r="V29" t="s">
-        <v>59</v>
-      </c>
       <c r="W29" t="s">
+        <v>59</v>
+      </c>
+      <c r="X29" t="s">
         <v>60</v>
-      </c>
-      <c r="X29" t="s">
-        <v>61</v>
       </c>
       <c r="Y29" t="s">
         <v>110</v>
       </c>
       <c r="AI29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN29" t="s">
         <v>111</v>
@@ -3917,19 +3992,19 @@
         <v>86</v>
       </c>
       <c r="AP29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS29" t="s">
         <v>65</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AT29" t="s">
         <v>66</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
@@ -3940,10 +4015,10 @@
         <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
         <v>49</v>
@@ -3955,82 +4030,82 @@
         <v>74</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="K30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30" t="s">
         <v>55</v>
       </c>
-      <c r="L30" t="s">
-        <v>55</v>
-      </c>
-      <c r="M30" t="s">
-        <v>55</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" t="s">
+        <v>56</v>
+      </c>
+      <c r="S30" t="s">
+        <v>57</v>
+      </c>
+      <c r="V30" t="s">
         <v>58</v>
       </c>
-      <c r="O30" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>54</v>
-      </c>
-      <c r="R30" t="s">
-        <v>57</v>
-      </c>
-      <c r="S30" t="s">
-        <v>58</v>
-      </c>
-      <c r="V30" t="s">
-        <v>59</v>
-      </c>
       <c r="W30" t="s">
+        <v>59</v>
+      </c>
+      <c r="X30" t="s">
         <v>60</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>61</v>
       </c>
-      <c r="Y30" t="s">
-        <v>62</v>
-      </c>
       <c r="AI30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN30" t="s">
         <v>114</v>
       </c>
       <c r="AO30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR30" t="s">
         <v>64</v>
       </c>
-      <c r="AP30" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR30" t="s">
+      <c r="AS30" t="s">
         <v>65</v>
       </c>
-      <c r="AS30" t="s">
+      <c r="AT30" t="s">
         <v>66</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
@@ -4041,10 +4116,10 @@
         <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
         <v>49</v>
@@ -4056,61 +4131,61 @@
         <v>74</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="K31" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N31" t="s">
+        <v>57</v>
+      </c>
+      <c r="O31" t="s">
         <v>55</v>
       </c>
-      <c r="L31" t="s">
-        <v>55</v>
-      </c>
-      <c r="M31" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>53</v>
+      </c>
+      <c r="R31" t="s">
+        <v>56</v>
+      </c>
+      <c r="S31" t="s">
+        <v>57</v>
+      </c>
+      <c r="V31" t="s">
         <v>58</v>
       </c>
-      <c r="O31" t="s">
-        <v>56</v>
-      </c>
-      <c r="P31" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>54</v>
-      </c>
-      <c r="R31" t="s">
-        <v>57</v>
-      </c>
-      <c r="S31" t="s">
-        <v>58</v>
-      </c>
-      <c r="V31" t="s">
-        <v>59</v>
-      </c>
       <c r="W31" t="s">
+        <v>59</v>
+      </c>
+      <c r="X31" t="s">
         <v>60</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>61</v>
       </c>
-      <c r="Y31" t="s">
-        <v>62</v>
-      </c>
       <c r="AI31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN31" t="s">
         <v>114</v>
@@ -4119,19 +4194,19 @@
         <v>86</v>
       </c>
       <c r="AP31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS31" t="s">
         <v>65</v>
       </c>
-      <c r="AS31" t="s">
+      <c r="AT31" t="s">
         <v>66</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
@@ -4142,10 +4217,10 @@
         <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
@@ -4157,43 +4232,43 @@
         <v>74</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="K32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" t="s">
+        <v>55</v>
+      </c>
+      <c r="P32" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q32" t="s">
         <v>53</v>
       </c>
-      <c r="L32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" t="s">
-        <v>55</v>
-      </c>
-      <c r="O32" t="s">
-        <v>56</v>
-      </c>
-      <c r="P32" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>54</v>
-      </c>
       <c r="R32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
+        <v>57</v>
+      </c>
+      <c r="U32" t="s">
+        <v>57</v>
+      </c>
+      <c r="V32" t="s">
         <v>58</v>
       </c>
-      <c r="U32" t="s">
-        <v>58</v>
-      </c>
-      <c r="V32" t="s">
-        <v>59</v>
-      </c>
       <c r="W32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X32" t="s">
         <v>91</v>
@@ -4202,37 +4277,37 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AO32" t="s">
         <v>117</v>
       </c>
       <c r="AP32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS32" t="s">
         <v>65</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>66</v>
       </c>
       <c r="AT32" t="s">
         <v>49</v>
@@ -4246,10 +4321,10 @@
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>49</v>
@@ -4261,43 +4336,43 @@
         <v>74</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" t="s">
         <v>53</v>
       </c>
-      <c r="L33" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" t="s">
-        <v>55</v>
-      </c>
-      <c r="O33" t="s">
-        <v>56</v>
-      </c>
-      <c r="P33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>54</v>
-      </c>
       <c r="R33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
+        <v>57</v>
+      </c>
+      <c r="U33" t="s">
+        <v>57</v>
+      </c>
+      <c r="V33" t="s">
         <v>58</v>
       </c>
-      <c r="U33" t="s">
-        <v>58</v>
-      </c>
-      <c r="V33" t="s">
-        <v>59</v>
-      </c>
       <c r="W33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X33" t="s">
         <v>91</v>
@@ -4306,37 +4381,37 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AO33" t="s">
         <v>118</v>
       </c>
       <c r="AP33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS33" t="s">
         <v>65</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>66</v>
       </c>
       <c r="AT33" t="s">
         <v>49</v>
@@ -4344,16 +4419,16 @@
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
@@ -4365,7 +4440,7 @@
         <v>74</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="K34" t="s">
         <v>90</v>
@@ -4377,31 +4452,31 @@
         <v>90</v>
       </c>
       <c r="N34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q34" t="s">
         <v>53</v>
       </c>
-      <c r="O34" t="s">
-        <v>56</v>
-      </c>
-      <c r="P34" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>54</v>
-      </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
+        <v>57</v>
+      </c>
+      <c r="U34" t="s">
+        <v>57</v>
+      </c>
+      <c r="V34" t="s">
         <v>58</v>
       </c>
-      <c r="U34" t="s">
-        <v>58</v>
-      </c>
-      <c r="V34" t="s">
-        <v>59</v>
-      </c>
       <c r="W34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X34" t="s">
         <v>91</v>
@@ -4413,37 +4488,37 @@
         <v>103</v>
       </c>
       <c r="AI34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO34" t="s">
         <v>117</v>
       </c>
       <c r="AP34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS34" t="s">
         <v>65</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>66</v>
       </c>
       <c r="AT34" t="s">
         <v>49</v>
@@ -4451,16 +4526,16 @@
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
         <v>119</v>
       </c>
-      <c r="B35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" t="s">
-        <v>154</v>
-      </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>49</v>
@@ -4472,7 +4547,7 @@
         <v>74</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="K35" t="s">
         <v>90</v>
@@ -4484,31 +4559,31 @@
         <v>90</v>
       </c>
       <c r="N35" t="s">
+        <v>52</v>
+      </c>
+      <c r="O35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35" t="s">
         <v>53</v>
       </c>
-      <c r="O35" t="s">
-        <v>56</v>
-      </c>
-      <c r="P35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>54</v>
-      </c>
       <c r="R35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" t="s">
+        <v>57</v>
+      </c>
+      <c r="V35" t="s">
         <v>58</v>
       </c>
-      <c r="U35" t="s">
-        <v>58</v>
-      </c>
-      <c r="V35" t="s">
-        <v>59</v>
-      </c>
       <c r="W35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X35" t="s">
         <v>91</v>
@@ -4520,37 +4595,37 @@
         <v>103</v>
       </c>
       <c r="AI35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AP35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS35" t="s">
         <v>65</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>66</v>
       </c>
       <c r="AT35" t="s">
         <v>49</v>
@@ -4558,16 +4633,16 @@
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
         <v>49</v>
@@ -4579,7 +4654,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="K36" t="s">
         <v>90</v>
@@ -4591,31 +4666,31 @@
         <v>90</v>
       </c>
       <c r="N36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q36" t="s">
         <v>53</v>
       </c>
-      <c r="O36" t="s">
-        <v>56</v>
-      </c>
-      <c r="P36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>54</v>
-      </c>
       <c r="R36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
+        <v>57</v>
+      </c>
+      <c r="V36" t="s">
         <v>58</v>
       </c>
-      <c r="V36" t="s">
-        <v>59</v>
-      </c>
       <c r="W36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X36" t="s">
         <v>91</v>
@@ -4624,19 +4699,19 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN36" t="s">
         <v>105</v>
@@ -4645,16 +4720,16 @@
         <v>117</v>
       </c>
       <c r="AP36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS36" t="s">
         <v>65</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>66</v>
       </c>
       <c r="AT36" t="s">
         <v>49</v>
@@ -4662,16 +4737,16 @@
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
         <v>49</v>
@@ -4683,7 +4758,7 @@
         <v>74</v>
       </c>
       <c r="I37" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s">
         <v>90</v>
@@ -4695,31 +4770,31 @@
         <v>90</v>
       </c>
       <c r="N37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O37" t="s">
+        <v>55</v>
+      </c>
+      <c r="P37" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37" t="s">
         <v>53</v>
       </c>
-      <c r="O37" t="s">
-        <v>56</v>
-      </c>
-      <c r="P37" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>54</v>
-      </c>
       <c r="R37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
+        <v>57</v>
+      </c>
+      <c r="V37" t="s">
         <v>58</v>
       </c>
-      <c r="V37" t="s">
-        <v>59</v>
-      </c>
       <c r="W37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X37" t="s">
         <v>91</v>
@@ -4728,37 +4803,37 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN37" t="s">
         <v>105</v>
       </c>
       <c r="AO37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AP37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS37" t="s">
         <v>65</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>66</v>
       </c>
       <c r="AT37" t="s">
         <v>49</v>
@@ -4766,16 +4841,16 @@
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
         <v>49</v>
@@ -4787,43 +4862,43 @@
         <v>74</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="K38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" t="s">
         <v>53</v>
       </c>
-      <c r="L38" t="s">
-        <v>53</v>
-      </c>
-      <c r="M38" t="s">
-        <v>53</v>
-      </c>
-      <c r="N38" t="s">
-        <v>55</v>
-      </c>
-      <c r="O38" t="s">
-        <v>56</v>
-      </c>
-      <c r="P38" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>54</v>
-      </c>
       <c r="R38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
+        <v>57</v>
+      </c>
+      <c r="U38" t="s">
+        <v>57</v>
+      </c>
+      <c r="V38" t="s">
         <v>58</v>
       </c>
-      <c r="U38" t="s">
-        <v>58</v>
-      </c>
-      <c r="V38" t="s">
-        <v>59</v>
-      </c>
       <c r="W38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X38" t="s">
         <v>91</v>
@@ -4832,19 +4907,19 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN38" t="s">
         <v>105</v>
@@ -4853,16 +4928,16 @@
         <v>117</v>
       </c>
       <c r="AP38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS38" t="s">
         <v>65</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>66</v>
       </c>
       <c r="AT38" t="s">
         <v>49</v>
@@ -4870,16 +4945,16 @@
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
         <v>49</v>
@@ -4891,43 +4966,43 @@
         <v>74</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="K39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" t="s">
+        <v>52</v>
+      </c>
+      <c r="N39" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q39" t="s">
         <v>53</v>
       </c>
-      <c r="L39" t="s">
-        <v>53</v>
-      </c>
-      <c r="M39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N39" t="s">
-        <v>55</v>
-      </c>
-      <c r="O39" t="s">
-        <v>56</v>
-      </c>
-      <c r="P39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>54</v>
-      </c>
       <c r="R39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" t="s">
+        <v>57</v>
+      </c>
+      <c r="V39" t="s">
         <v>58</v>
       </c>
-      <c r="U39" t="s">
-        <v>58</v>
-      </c>
-      <c r="V39" t="s">
-        <v>59</v>
-      </c>
       <c r="W39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X39" t="s">
         <v>91</v>
@@ -4936,37 +5011,37 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN39" t="s">
         <v>105</v>
       </c>
       <c r="AO39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AP39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS39" t="s">
         <v>65</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>66</v>
       </c>
       <c r="AT39" t="s">
         <v>49</v>
@@ -4974,16 +5049,16 @@
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
         <v>49</v>
@@ -4995,43 +5070,43 @@
         <v>74</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="K40" t="s">
+        <v>52</v>
+      </c>
+      <c r="L40" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" t="s">
+        <v>52</v>
+      </c>
+      <c r="N40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O40" t="s">
+        <v>55</v>
+      </c>
+      <c r="P40" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q40" t="s">
         <v>53</v>
       </c>
-      <c r="L40" t="s">
-        <v>53</v>
-      </c>
-      <c r="M40" t="s">
-        <v>53</v>
-      </c>
-      <c r="N40" t="s">
-        <v>55</v>
-      </c>
-      <c r="O40" t="s">
-        <v>56</v>
-      </c>
-      <c r="P40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>54</v>
-      </c>
       <c r="R40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" t="s">
+        <v>57</v>
+      </c>
+      <c r="V40" t="s">
         <v>58</v>
       </c>
-      <c r="U40" t="s">
-        <v>58</v>
-      </c>
-      <c r="V40" t="s">
-        <v>59</v>
-      </c>
       <c r="W40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X40" t="s">
         <v>91</v>
@@ -5040,37 +5115,37 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO40" t="s">
         <v>117</v>
       </c>
       <c r="AP40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS40" t="s">
         <v>65</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>66</v>
       </c>
       <c r="AT40" t="s">
         <v>49</v>
@@ -5078,16 +5153,16 @@
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
         <v>49</v>
@@ -5099,43 +5174,43 @@
         <v>74</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="K41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" t="s">
+        <v>52</v>
+      </c>
+      <c r="N41" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q41" t="s">
         <v>53</v>
       </c>
-      <c r="L41" t="s">
-        <v>53</v>
-      </c>
-      <c r="M41" t="s">
-        <v>53</v>
-      </c>
-      <c r="N41" t="s">
-        <v>55</v>
-      </c>
-      <c r="O41" t="s">
-        <v>56</v>
-      </c>
-      <c r="P41" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>54</v>
-      </c>
       <c r="R41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
+        <v>57</v>
+      </c>
+      <c r="U41" t="s">
+        <v>57</v>
+      </c>
+      <c r="V41" t="s">
         <v>58</v>
       </c>
-      <c r="U41" t="s">
-        <v>58</v>
-      </c>
-      <c r="V41" t="s">
-        <v>59</v>
-      </c>
       <c r="W41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X41" t="s">
         <v>91</v>
@@ -5144,37 +5219,37 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AP41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS41" t="s">
         <v>65</v>
-      </c>
-      <c r="AS41" t="s">
-        <v>66</v>
       </c>
       <c r="AT41" t="s">
         <v>49</v>
@@ -5182,16 +5257,16 @@
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42" t="s">
         <v>49</v>
@@ -5203,7 +5278,7 @@
         <v>74</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="K42" t="s">
         <v>90</v>
@@ -5215,31 +5290,31 @@
         <v>90</v>
       </c>
       <c r="N42" t="s">
+        <v>52</v>
+      </c>
+      <c r="O42" t="s">
+        <v>55</v>
+      </c>
+      <c r="P42" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q42" t="s">
         <v>53</v>
       </c>
-      <c r="O42" t="s">
-        <v>56</v>
-      </c>
-      <c r="P42" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>54</v>
-      </c>
       <c r="R42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U42" t="s">
+        <v>57</v>
+      </c>
+      <c r="V42" t="s">
         <v>58</v>
       </c>
-      <c r="V42" t="s">
-        <v>59</v>
-      </c>
       <c r="W42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X42" t="s">
         <v>91</v>
@@ -5248,37 +5323,37 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO42" t="s">
         <v>117</v>
       </c>
       <c r="AP42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS42" t="s">
         <v>65</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>66</v>
       </c>
       <c r="AT42" t="s">
         <v>49</v>
@@ -5286,16 +5361,16 @@
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F43" t="s">
         <v>49</v>
@@ -5307,7 +5382,7 @@
         <v>74</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="K43" t="s">
         <v>90</v>
@@ -5319,31 +5394,31 @@
         <v>90</v>
       </c>
       <c r="N43" t="s">
+        <v>52</v>
+      </c>
+      <c r="O43" t="s">
+        <v>55</v>
+      </c>
+      <c r="P43" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q43" t="s">
         <v>53</v>
       </c>
-      <c r="O43" t="s">
-        <v>56</v>
-      </c>
-      <c r="P43" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>54</v>
-      </c>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U43" t="s">
+        <v>57</v>
+      </c>
+      <c r="V43" t="s">
         <v>58</v>
       </c>
-      <c r="V43" t="s">
-        <v>59</v>
-      </c>
       <c r="W43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X43" t="s">
         <v>91</v>
@@ -5352,37 +5427,37 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AP43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS43" t="s">
         <v>65</v>
-      </c>
-      <c r="AS43" t="s">
-        <v>66</v>
       </c>
       <c r="AT43" t="s">
         <v>49</v>
@@ -5390,16 +5465,16 @@
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F44" t="s">
         <v>49</v>
@@ -5411,7 +5486,7 @@
         <v>74</v>
       </c>
       <c r="I44" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="K44" t="s">
         <v>90</v>
@@ -5423,31 +5498,31 @@
         <v>90</v>
       </c>
       <c r="N44" t="s">
+        <v>52</v>
+      </c>
+      <c r="O44" t="s">
+        <v>55</v>
+      </c>
+      <c r="P44" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q44" t="s">
         <v>53</v>
       </c>
-      <c r="O44" t="s">
-        <v>56</v>
-      </c>
-      <c r="P44" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>54</v>
-      </c>
       <c r="R44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T44" t="s">
+        <v>57</v>
+      </c>
+      <c r="U44" t="s">
+        <v>57</v>
+      </c>
+      <c r="V44" t="s">
         <v>58</v>
       </c>
-      <c r="U44" t="s">
-        <v>58</v>
-      </c>
-      <c r="V44" t="s">
-        <v>59</v>
-      </c>
       <c r="W44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X44" t="s">
         <v>91</v>
@@ -5456,19 +5531,19 @@
         <v>139</v>
       </c>
       <c r="AI44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN44" t="s">
         <v>140</v>
@@ -5477,16 +5552,16 @@
         <v>117</v>
       </c>
       <c r="AP44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS44" t="s">
         <v>65</v>
-      </c>
-      <c r="AS44" t="s">
-        <v>66</v>
       </c>
       <c r="AT44" t="s">
         <v>49</v>
@@ -5494,16 +5569,16 @@
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F45" t="s">
         <v>49</v>
@@ -5515,7 +5590,7 @@
         <v>74</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="K45" t="s">
         <v>90</v>
@@ -5527,31 +5602,31 @@
         <v>90</v>
       </c>
       <c r="N45" t="s">
+        <v>52</v>
+      </c>
+      <c r="O45" t="s">
+        <v>55</v>
+      </c>
+      <c r="P45" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q45" t="s">
         <v>53</v>
       </c>
-      <c r="O45" t="s">
-        <v>56</v>
-      </c>
-      <c r="P45" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>54</v>
-      </c>
       <c r="R45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45" t="s">
+        <v>57</v>
+      </c>
+      <c r="V45" t="s">
         <v>58</v>
       </c>
-      <c r="U45" t="s">
-        <v>58</v>
-      </c>
-      <c r="V45" t="s">
-        <v>59</v>
-      </c>
       <c r="W45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X45" t="s">
         <v>91</v>
@@ -5560,19 +5635,19 @@
         <v>139</v>
       </c>
       <c r="AI45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN45" t="s">
         <v>140</v>
@@ -5581,16 +5656,16 @@
         <v>141</v>
       </c>
       <c r="AP45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS45" t="s">
         <v>65</v>
-      </c>
-      <c r="AS45" t="s">
-        <v>66</v>
       </c>
       <c r="AT45" t="s">
         <v>49</v>
@@ -5598,16 +5673,16 @@
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F46" t="s">
         <v>49</v>
@@ -5619,7 +5694,7 @@
         <v>74</v>
       </c>
       <c r="I46" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="K46" t="s">
         <v>90</v>
@@ -5631,31 +5706,31 @@
         <v>90</v>
       </c>
       <c r="N46" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q46" t="s">
         <v>53</v>
       </c>
-      <c r="O46" t="s">
-        <v>56</v>
-      </c>
-      <c r="P46" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>54</v>
-      </c>
       <c r="R46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T46" t="s">
+        <v>57</v>
+      </c>
+      <c r="U46" t="s">
+        <v>57</v>
+      </c>
+      <c r="V46" t="s">
         <v>58</v>
       </c>
-      <c r="U46" t="s">
-        <v>58</v>
-      </c>
-      <c r="V46" t="s">
-        <v>59</v>
-      </c>
       <c r="W46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X46" t="s">
         <v>91</v>
@@ -5664,19 +5739,19 @@
         <v>139</v>
       </c>
       <c r="AI46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN46" t="s">
         <v>140</v>
@@ -5685,16 +5760,16 @@
         <v>117</v>
       </c>
       <c r="AP46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS46" t="s">
         <v>65</v>
-      </c>
-      <c r="AS46" t="s">
-        <v>66</v>
       </c>
       <c r="AT46" t="s">
         <v>49</v>
@@ -5702,16 +5777,16 @@
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
         <v>49</v>
@@ -5723,7 +5798,7 @@
         <v>74</v>
       </c>
       <c r="I47" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="K47" t="s">
         <v>90</v>
@@ -5735,31 +5810,31 @@
         <v>90</v>
       </c>
       <c r="N47" t="s">
+        <v>52</v>
+      </c>
+      <c r="O47" t="s">
+        <v>55</v>
+      </c>
+      <c r="P47" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q47" t="s">
         <v>53</v>
       </c>
-      <c r="O47" t="s">
-        <v>56</v>
-      </c>
-      <c r="P47" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>54</v>
-      </c>
       <c r="R47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T47" t="s">
+        <v>57</v>
+      </c>
+      <c r="U47" t="s">
+        <v>57</v>
+      </c>
+      <c r="V47" t="s">
         <v>58</v>
       </c>
-      <c r="U47" t="s">
-        <v>58</v>
-      </c>
-      <c r="V47" t="s">
-        <v>59</v>
-      </c>
       <c r="W47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X47" t="s">
         <v>91</v>
@@ -5768,19 +5843,19 @@
         <v>139</v>
       </c>
       <c r="AI47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN47" t="s">
         <v>140</v>
@@ -5789,16 +5864,16 @@
         <v>117</v>
       </c>
       <c r="AP47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS47" t="s">
         <v>65</v>
-      </c>
-      <c r="AS47" t="s">
-        <v>66</v>
       </c>
       <c r="AT47" t="s">
         <v>49</v>
@@ -5806,16 +5881,16 @@
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -5827,7 +5902,7 @@
         <v>74</v>
       </c>
       <c r="I48" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="K48" t="s">
         <v>90</v>
@@ -5839,31 +5914,31 @@
         <v>90</v>
       </c>
       <c r="N48" t="s">
+        <v>52</v>
+      </c>
+      <c r="O48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P48" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q48" t="s">
         <v>53</v>
       </c>
-      <c r="O48" t="s">
-        <v>56</v>
-      </c>
-      <c r="P48" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>54</v>
-      </c>
       <c r="R48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T48" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" t="s">
         <v>58</v>
       </c>
-      <c r="U48" t="s">
-        <v>58</v>
-      </c>
-      <c r="V48" t="s">
-        <v>59</v>
-      </c>
       <c r="W48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X48" t="s">
         <v>91</v>
@@ -5872,19 +5947,19 @@
         <v>139</v>
       </c>
       <c r="AI48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN48" t="s">
         <v>140</v>
@@ -5893,16 +5968,16 @@
         <v>117</v>
       </c>
       <c r="AP48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS48" t="s">
         <v>65</v>
-      </c>
-      <c r="AS48" t="s">
-        <v>66</v>
       </c>
       <c r="AT48" t="s">
         <v>49</v>
@@ -5910,16 +5985,16 @@
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F49" t="s">
         <v>49</v>
@@ -5931,7 +6006,7 @@
         <v>74</v>
       </c>
       <c r="I49" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="K49" t="s">
         <v>90</v>
@@ -5943,31 +6018,31 @@
         <v>90</v>
       </c>
       <c r="N49" t="s">
+        <v>52</v>
+      </c>
+      <c r="O49" t="s">
+        <v>55</v>
+      </c>
+      <c r="P49" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q49" t="s">
         <v>53</v>
       </c>
-      <c r="O49" t="s">
-        <v>56</v>
-      </c>
-      <c r="P49" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>54</v>
-      </c>
       <c r="R49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T49" t="s">
+        <v>57</v>
+      </c>
+      <c r="U49" t="s">
+        <v>57</v>
+      </c>
+      <c r="V49" t="s">
         <v>58</v>
       </c>
-      <c r="U49" t="s">
-        <v>58</v>
-      </c>
-      <c r="V49" t="s">
-        <v>59</v>
-      </c>
       <c r="W49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X49" t="s">
         <v>91</v>
@@ -5976,19 +6051,19 @@
         <v>139</v>
       </c>
       <c r="AI49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN49" t="s">
         <v>140</v>
@@ -5997,16 +6072,16 @@
         <v>117</v>
       </c>
       <c r="AP49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS49" t="s">
         <v>65</v>
-      </c>
-      <c r="AS49" t="s">
-        <v>66</v>
       </c>
       <c r="AT49" t="s">
         <v>49</v>
@@ -6014,16 +6089,16 @@
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
         <v>49</v>
@@ -6035,79 +6110,79 @@
         <v>74</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="K50" t="s">
+        <v>54</v>
+      </c>
+      <c r="L50" t="s">
+        <v>54</v>
+      </c>
+      <c r="M50" t="s">
+        <v>54</v>
+      </c>
+      <c r="N50" t="s">
+        <v>57</v>
+      </c>
+      <c r="O50" t="s">
         <v>55</v>
       </c>
-      <c r="L50" t="s">
-        <v>55</v>
-      </c>
-      <c r="M50" t="s">
-        <v>55</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="P50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>53</v>
+      </c>
+      <c r="R50" t="s">
+        <v>56</v>
+      </c>
+      <c r="S50" t="s">
+        <v>57</v>
+      </c>
+      <c r="V50" t="s">
         <v>58</v>
       </c>
-      <c r="O50" t="s">
-        <v>56</v>
-      </c>
-      <c r="P50" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>54</v>
-      </c>
-      <c r="R50" t="s">
-        <v>57</v>
-      </c>
-      <c r="S50" t="s">
-        <v>58</v>
-      </c>
-      <c r="V50" t="s">
-        <v>59</v>
-      </c>
       <c r="W50" t="s">
+        <v>59</v>
+      </c>
+      <c r="X50" t="s">
         <v>60</v>
-      </c>
-      <c r="X50" t="s">
-        <v>61</v>
       </c>
       <c r="Y50" t="s">
         <v>139</v>
       </c>
       <c r="AI50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AN50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AO50" t="s">
         <v>117</v>
       </c>
       <c r="AP50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AR50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS50" t="s">
         <v>65</v>
-      </c>
-      <c r="AS50" t="s">
-        <v>66</v>
       </c>
       <c r="AT50" t="s">
         <v>49</v>
@@ -6115,16 +6190,16 @@
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F51" t="s">
         <v>49</v>
@@ -6136,43 +6211,43 @@
         <v>74</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" t="s">
+        <v>52</v>
+      </c>
+      <c r="N51" t="s">
+        <v>54</v>
+      </c>
+      <c r="O51" t="s">
+        <v>55</v>
+      </c>
+      <c r="P51" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q51" t="s">
         <v>53</v>
       </c>
-      <c r="L51" t="s">
-        <v>53</v>
-      </c>
-      <c r="M51" t="s">
-        <v>53</v>
-      </c>
-      <c r="N51" t="s">
-        <v>55</v>
-      </c>
-      <c r="O51" t="s">
-        <v>56</v>
-      </c>
-      <c r="P51" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>54</v>
-      </c>
       <c r="R51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T51" t="s">
+        <v>57</v>
+      </c>
+      <c r="U51" t="s">
+        <v>57</v>
+      </c>
+      <c r="V51" t="s">
         <v>58</v>
       </c>
-      <c r="U51" t="s">
-        <v>58</v>
-      </c>
-      <c r="V51" t="s">
-        <v>59</v>
-      </c>
       <c r="W51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X51" t="s">
         <v>91</v>
@@ -6181,37 +6256,37 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AO51" t="s">
         <v>117</v>
       </c>
       <c r="AP51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS51" t="s">
         <v>65</v>
-      </c>
-      <c r="AS51" t="s">
-        <v>66</v>
       </c>
       <c r="AT51" t="s">
         <v>49</v>
@@ -6219,16 +6294,16 @@
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" t="s">
         <v>149</v>
       </c>
-      <c r="D52" t="s">
-        <v>155</v>
-      </c>
       <c r="E52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F52" t="s">
         <v>49</v>
@@ -6240,43 +6315,43 @@
         <v>74</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="K52" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" t="s">
+        <v>52</v>
+      </c>
+      <c r="N52" t="s">
+        <v>54</v>
+      </c>
+      <c r="O52" t="s">
+        <v>55</v>
+      </c>
+      <c r="P52" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q52" t="s">
         <v>53</v>
       </c>
-      <c r="L52" t="s">
-        <v>53</v>
-      </c>
-      <c r="M52" t="s">
-        <v>53</v>
-      </c>
-      <c r="N52" t="s">
-        <v>55</v>
-      </c>
-      <c r="O52" t="s">
-        <v>56</v>
-      </c>
-      <c r="P52" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>54</v>
-      </c>
       <c r="R52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T52" t="s">
+        <v>57</v>
+      </c>
+      <c r="U52" t="s">
+        <v>57</v>
+      </c>
+      <c r="V52" t="s">
         <v>58</v>
       </c>
-      <c r="U52" t="s">
-        <v>58</v>
-      </c>
-      <c r="V52" t="s">
-        <v>59</v>
-      </c>
       <c r="W52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X52" t="s">
         <v>91</v>
@@ -6285,37 +6360,37 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AO52" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AP52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR52" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS52" t="s">
         <v>65</v>
-      </c>
-      <c r="AS52" t="s">
-        <v>66</v>
       </c>
       <c r="AT52" t="s">
         <v>49</v>
@@ -6323,16 +6398,16 @@
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F53" t="s">
         <v>49</v>
@@ -6344,43 +6419,43 @@
         <v>74</v>
       </c>
       <c r="I53" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="K53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" t="s">
+        <v>52</v>
+      </c>
+      <c r="N53" t="s">
+        <v>54</v>
+      </c>
+      <c r="O53" t="s">
+        <v>55</v>
+      </c>
+      <c r="P53" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q53" t="s">
         <v>53</v>
       </c>
-      <c r="L53" t="s">
-        <v>53</v>
-      </c>
-      <c r="M53" t="s">
-        <v>53</v>
-      </c>
-      <c r="N53" t="s">
-        <v>55</v>
-      </c>
-      <c r="O53" t="s">
-        <v>56</v>
-      </c>
-      <c r="P53" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>54</v>
-      </c>
       <c r="R53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T53" t="s">
+        <v>57</v>
+      </c>
+      <c r="U53" t="s">
+        <v>57</v>
+      </c>
+      <c r="V53" t="s">
         <v>58</v>
       </c>
-      <c r="U53" t="s">
-        <v>58</v>
-      </c>
-      <c r="V53" t="s">
-        <v>59</v>
-      </c>
       <c r="W53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X53" t="s">
         <v>91</v>
@@ -6389,37 +6464,37 @@
         <v>76</v>
       </c>
       <c r="AI53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AO53" t="s">
         <v>117</v>
       </c>
       <c r="AP53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS53" t="s">
         <v>65</v>
-      </c>
-      <c r="AS53" t="s">
-        <v>66</v>
       </c>
       <c r="AT53" t="s">
         <v>49</v>
@@ -6427,16 +6502,16 @@
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F54" t="s">
         <v>49</v>
@@ -6448,43 +6523,43 @@
         <v>74</v>
       </c>
       <c r="I54" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="K54" t="s">
+        <v>52</v>
+      </c>
+      <c r="L54" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N54" t="s">
+        <v>54</v>
+      </c>
+      <c r="O54" t="s">
+        <v>55</v>
+      </c>
+      <c r="P54" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q54" t="s">
         <v>53</v>
       </c>
-      <c r="L54" t="s">
-        <v>53</v>
-      </c>
-      <c r="M54" t="s">
-        <v>53</v>
-      </c>
-      <c r="N54" t="s">
-        <v>55</v>
-      </c>
-      <c r="O54" t="s">
-        <v>56</v>
-      </c>
-      <c r="P54" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>54</v>
-      </c>
       <c r="R54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T54" t="s">
+        <v>57</v>
+      </c>
+      <c r="U54" t="s">
+        <v>57</v>
+      </c>
+      <c r="V54" t="s">
         <v>58</v>
       </c>
-      <c r="U54" t="s">
-        <v>58</v>
-      </c>
-      <c r="V54" t="s">
-        <v>59</v>
-      </c>
       <c r="W54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X54" t="s">
         <v>91</v>
@@ -6493,37 +6568,37 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AO54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AP54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS54" t="s">
         <v>65</v>
-      </c>
-      <c r="AS54" t="s">
-        <v>66</v>
       </c>
       <c r="AT54" t="s">
         <v>49</v>
@@ -6531,16 +6606,16 @@
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
         <v>49</v>
@@ -6552,43 +6627,43 @@
         <v>74</v>
       </c>
       <c r="I55" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" t="s">
+        <v>52</v>
+      </c>
+      <c r="N55" t="s">
+        <v>54</v>
+      </c>
+      <c r="O55" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q55" t="s">
         <v>53</v>
       </c>
-      <c r="L55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M55" t="s">
-        <v>53</v>
-      </c>
-      <c r="N55" t="s">
-        <v>55</v>
-      </c>
-      <c r="O55" t="s">
-        <v>56</v>
-      </c>
-      <c r="P55" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>54</v>
-      </c>
       <c r="R55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T55" t="s">
+        <v>57</v>
+      </c>
+      <c r="U55" t="s">
+        <v>57</v>
+      </c>
+      <c r="V55" t="s">
         <v>58</v>
       </c>
-      <c r="U55" t="s">
-        <v>58</v>
-      </c>
-      <c r="V55" t="s">
-        <v>59</v>
-      </c>
       <c r="W55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X55" t="s">
         <v>91</v>
@@ -6597,37 +6672,37 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN55" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AO55" t="s">
         <v>117</v>
       </c>
       <c r="AP55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS55" t="s">
         <v>65</v>
-      </c>
-      <c r="AS55" t="s">
-        <v>66</v>
       </c>
       <c r="AT55" t="s">
         <v>49</v>
@@ -6635,16 +6710,16 @@
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F56" t="s">
         <v>49</v>
@@ -6656,43 +6731,43 @@
         <v>74</v>
       </c>
       <c r="I56" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="K56" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" t="s">
+        <v>52</v>
+      </c>
+      <c r="M56" t="s">
+        <v>52</v>
+      </c>
+      <c r="N56" t="s">
+        <v>54</v>
+      </c>
+      <c r="O56" t="s">
+        <v>55</v>
+      </c>
+      <c r="P56" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q56" t="s">
         <v>53</v>
       </c>
-      <c r="L56" t="s">
-        <v>53</v>
-      </c>
-      <c r="M56" t="s">
-        <v>53</v>
-      </c>
-      <c r="N56" t="s">
-        <v>55</v>
-      </c>
-      <c r="O56" t="s">
-        <v>56</v>
-      </c>
-      <c r="P56" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>54</v>
-      </c>
       <c r="R56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T56" t="s">
+        <v>57</v>
+      </c>
+      <c r="U56" t="s">
+        <v>57</v>
+      </c>
+      <c r="V56" t="s">
         <v>58</v>
       </c>
-      <c r="U56" t="s">
-        <v>58</v>
-      </c>
-      <c r="V56" t="s">
-        <v>59</v>
-      </c>
       <c r="W56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X56" t="s">
         <v>91</v>
@@ -6701,37 +6776,37 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN56" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AO56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AP56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AQ56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AR56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS56" t="s">
         <v>65</v>
-      </c>
-      <c r="AS56" t="s">
-        <v>66</v>
       </c>
       <c r="AT56" t="s">
         <v>49</v>
